--- a/file/荣耀水晶计划.xlsx
+++ b/file/荣耀水晶计划.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deng-\OneDrive\HugoBlog\static\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab8db44a4cf510aa/HugoBlog/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{757F8E0B-ECF4-40F0-AE63-BC10B16B018A}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{278A57D2-8257-4320-8A4B-A00F43DA5FAE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>https://blog.dontjudge.cn/life/荣耀水晶计划/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,13 @@
   </si>
   <si>
     <t>点券初始值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值活动，冲300点券</t>
+  </si>
+  <si>
+    <t>每月一元超值礼盒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,31 +260,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -300,17 +282,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -329,6 +307,35 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -343,20 +350,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{287D8F61-3457-4B4F-80D1-4C97ED14B3FC}" name="表1" displayName="表1" ref="A2:D31" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{287D8F61-3457-4B4F-80D1-4C97ED14B3FC}" name="表1" displayName="表1" ref="A2:D31" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A2:D31" xr:uid="{FFF6BDB0-233E-45C3-B513-D7F7B2813FDE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BFB9B37A-BAF8-49AF-8CE2-85AA221C0C62}" name="日期" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{B2AA104D-79AC-49A0-90C1-D5B9466ED2E3}" name="充值事件" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{BF8C90BA-23D4-4640-90D5-8F7E91FA3194}" name="具体描述" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{89553191-62E1-4522-8013-7D95876608E4}" name="点券变动" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{BFB9B37A-BAF8-49AF-8CE2-85AA221C0C62}" name="日期" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B2AA104D-79AC-49A0-90C1-D5B9466ED2E3}" name="充值事件" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{BF8C90BA-23D4-4640-90D5-8F7E91FA3194}" name="具体描述" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{89553191-62E1-4522-8013-7D95876608E4}" name="点券变动" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91D097BF-DFC5-4880-8B5F-FF45456E5856}" name="表2" displayName="表2" ref="F2:I31" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91D097BF-DFC5-4880-8B5F-FF45456E5856}" name="表2" displayName="表2" ref="F2:I31" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="F2:I31" xr:uid="{3C00EF5C-579D-4C63-8F8F-F6CA42A5B53D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{459305FA-7C9B-4377-B4BF-ACECDA33455B}" name="日期"/>
@@ -680,7 +687,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -789,10 +796,16 @@
       <c r="D4" s="4">
         <v>300</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="3">
+        <v>43862</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4">
+        <v>-10</v>
+      </c>
       <c r="K4" s="8">
         <v>43859</v>
       </c>
@@ -804,30 +817,54 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="3">
+        <v>43860</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>300</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="3">
+        <v>43861</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>300</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4">
+        <v>300</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>

--- a/file/荣耀水晶计划.xlsx
+++ b/file/荣耀水晶计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab8db44a4cf510aa/HugoBlog/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{278A57D2-8257-4320-8A4B-A00F43DA5FAE}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A29C3074-4C77-41D6-8E3B-E44D8CBFDB2F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>https://blog.dontjudge.cn/life/荣耀水晶计划/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,7 +222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,6 +251,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -258,7 +264,10 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -350,20 +359,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{287D8F61-3457-4B4F-80D1-4C97ED14B3FC}" name="表1" displayName="表1" ref="A2:D31" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{287D8F61-3457-4B4F-80D1-4C97ED14B3FC}" name="表1" displayName="表1" ref="A2:D31" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A2:D31" xr:uid="{FFF6BDB0-233E-45C3-B513-D7F7B2813FDE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BFB9B37A-BAF8-49AF-8CE2-85AA221C0C62}" name="日期" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B2AA104D-79AC-49A0-90C1-D5B9466ED2E3}" name="充值事件" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{BF8C90BA-23D4-4640-90D5-8F7E91FA3194}" name="具体描述" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{89553191-62E1-4522-8013-7D95876608E4}" name="点券变动" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BFB9B37A-BAF8-49AF-8CE2-85AA221C0C62}" name="日期" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B2AA104D-79AC-49A0-90C1-D5B9466ED2E3}" name="充值事件" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{BF8C90BA-23D4-4640-90D5-8F7E91FA3194}" name="具体描述" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{89553191-62E1-4522-8013-7D95876608E4}" name="点券变动" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91D097BF-DFC5-4880-8B5F-FF45456E5856}" name="表2" displayName="表2" ref="F2:I31" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{91D097BF-DFC5-4880-8B5F-FF45456E5856}" name="表2" displayName="表2" ref="F2:I31" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="F2:I31" xr:uid="{3C00EF5C-579D-4C63-8F8F-F6CA42A5B53D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{459305FA-7C9B-4377-B4BF-ACECDA33455B}" name="日期"/>
@@ -379,7 +388,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3D76ABFE-202A-43EC-BEE3-8487B4D3887A}" name="表3" displayName="表3" ref="K2:M31" totalsRowShown="0">
   <autoFilter ref="K2:M31" xr:uid="{956BF7E7-61DD-4EC7-8D6D-11746E2D88C4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{921E5C7B-D297-4423-B412-5E690CE843F0}" name="日期"/>
+    <tableColumn id="1" xr3:uid="{921E5C7B-D297-4423-B412-5E690CE843F0}" name="日期" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9A39483D-3175-4484-B6BB-4848797F7AEF}" name="抽奖事件"/>
     <tableColumn id="3" xr3:uid="{FB72C8A7-B6F2-4525-AF47-68729E364F69}" name="幸运值"/>
   </tableColumns>
@@ -686,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A1320A-CB45-43F3-840D-12EF45569C65}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -701,7 +710,7 @@
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.125" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="16.375" style="10" customWidth="1"/>
     <col min="12" max="12" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -738,7 +747,7 @@
       <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="L2" t="s">
@@ -833,6 +842,15 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
+      <c r="K5" s="11">
+        <v>43865</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3">

--- a/file/荣耀水晶计划.xlsx
+++ b/file/荣耀水晶计划.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab8db44a4cf510aa/HugoBlog/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A29C3074-4C77-41D6-8E3B-E44D8CBFDB2F}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2B057E84-112D-4BDB-9959-292E35CB57EA}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>https://blog.dontjudge.cn/life/荣耀水晶计划/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,17 @@
   </si>
   <si>
     <t>每月一元超值礼盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值点券</t>
+  </si>
+  <si>
+    <t>710-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫦娥情人节皮肤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,7 +707,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -838,10 +849,18 @@
       <c r="D5" s="4">
         <v>300</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="F5" s="3">
+        <v>43875</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-660</v>
+      </c>
       <c r="K5" s="11">
         <v>43865</v>
       </c>
@@ -869,6 +888,15 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
+      <c r="K6" s="11">
+        <v>43871</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -887,72 +915,137 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
+      <c r="K7" s="11">
+        <v>43878</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4">
+        <v>300</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="3">
+        <v>43870</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>300</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>300</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4">
+        <v>300</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="3">
+        <v>43875</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4">
+        <v>300</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="3">
+        <v>43876</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4">
+        <v>300</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="3">
+        <v>43877</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4">
+        <v>300</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>

--- a/file/荣耀水晶计划.xlsx
+++ b/file/荣耀水晶计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab8db44a4cf510aa/HugoBlog/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2B057E84-112D-4BDB-9959-292E35CB57EA}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{184B9214-CCE8-4BBB-A8CB-1927831EC4B3}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>https://blog.dontjudge.cn/life/荣耀水晶计划/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,34 @@
   </si>
   <si>
     <t>嫦娥情人节皮肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞错了，没折扣，不该抽的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽罗黑色箭星元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180点券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动五连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60积分*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周共抽取35次，有些冲动，折扣期间，问题不大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,12 +424,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3D76ABFE-202A-43EC-BEE3-8487B4D3887A}" name="表3" displayName="表3" ref="K2:M31" totalsRowShown="0">
-  <autoFilter ref="K2:M31" xr:uid="{956BF7E7-61DD-4EC7-8D6D-11746E2D88C4}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3D76ABFE-202A-43EC-BEE3-8487B4D3887A}" name="表3" displayName="表3" ref="K2:N31" totalsRowShown="0">
+  <autoFilter ref="K2:N31" xr:uid="{956BF7E7-61DD-4EC7-8D6D-11746E2D88C4}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{921E5C7B-D297-4423-B412-5E690CE843F0}" name="日期" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9A39483D-3175-4484-B6BB-4848797F7AEF}" name="抽奖事件"/>
     <tableColumn id="3" xr3:uid="{FB72C8A7-B6F2-4525-AF47-68729E364F69}" name="幸运值"/>
+    <tableColumn id="4" xr3:uid="{2CDDD191-B394-4769-BEFC-DDE396469D0C}" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -704,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A1320A-CB45-43F3-840D-12EF45569C65}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -725,7 +754,7 @@
     <col min="12" max="12" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -733,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -767,8 +796,11 @@
       <c r="M2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>43859</v>
       </c>
@@ -803,7 +835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>43859</v>
       </c>
@@ -836,7 +868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>43860</v>
       </c>
@@ -871,7 +903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43861</v>
       </c>
@@ -884,10 +916,18 @@
       <c r="D6" s="4">
         <v>300</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="F6" s="3">
+        <v>43886</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-180</v>
+      </c>
       <c r="K6" s="11">
         <v>43871</v>
       </c>
@@ -898,7 +938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>43862</v>
       </c>
@@ -911,10 +951,18 @@
       <c r="D7" s="4">
         <v>300</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="F7" s="3">
+        <v>43889</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-600</v>
+      </c>
       <c r="K7" s="11">
         <v>43878</v>
       </c>
@@ -925,7 +973,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>43869</v>
       </c>
@@ -938,12 +986,30 @@
       <c r="D8" s="4">
         <v>300</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="3">
+        <v>43891</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I8" s="4">
+        <v>-10</v>
+      </c>
+      <c r="K8" s="11">
+        <v>43885</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <v>49</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>43870</v>
       </c>
@@ -960,8 +1026,17 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K9" s="11">
+        <v>43889</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43871</v>
       </c>
@@ -978,8 +1053,17 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K10" s="11">
+        <v>43889</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>43872</v>
       </c>
@@ -996,8 +1080,17 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K11" s="11">
+        <v>43889</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>43875</v>
       </c>
@@ -1014,8 +1107,17 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K12" s="11">
+        <v>43889</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>43876</v>
       </c>
@@ -1032,8 +1134,17 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K13" s="11">
+        <v>43889</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43877</v>
       </c>
@@ -1050,32 +1161,68 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="K14" s="11">
+        <v>43889</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14">
+        <v>79</v>
+      </c>
+      <c r="N14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>43886</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4">
+        <v>300</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4">
+        <v>300</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="3">
+        <v>43888</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4">
+        <v>300</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>

--- a/file/荣耀水晶计划.xlsx
+++ b/file/荣耀水晶计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab8db44a4cf510aa/HugoBlog/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{184B9214-CCE8-4BBB-A8CB-1927831EC4B3}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7525EB77-E75A-4E2B-9E2B-4CD0E7C5F38E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>https://blog.dontjudge.cn/life/荣耀水晶计划/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -736,7 +738,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1229,10 +1231,18 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="3">
+        <v>43896</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4">
+        <v>300</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>

--- a/file/荣耀水晶计划.xlsx
+++ b/file/荣耀水晶计划.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab8db44a4cf510aa/HugoBlog/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7525EB77-E75A-4E2B-9E2B-4CD0E7C5F38E}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B33C1EC8-DF63-4F25-8645-DF6A9C1D2EA4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="16440" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>https://blog.dontjudge.cn/life/荣耀水晶计划/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,10 @@
   </si>
   <si>
     <t>本周共抽取35次，有些冲动，折扣期间，问题不大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖券五连</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,7 +742,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1193,6 +1197,15 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
+      <c r="K15" s="11">
+        <v>43896</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15">
+        <v>84</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3">

--- a/file/荣耀水晶计划.xlsx
+++ b/file/荣耀水晶计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab8db44a4cf510aa/HugoBlog/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B33C1EC8-DF63-4F25-8645-DF6A9C1D2EA4}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{166AB318-D405-42C7-81E5-BAD295D1066C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="16440" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
   <si>
     <t>https://blog.dontjudge.cn/life/荣耀水晶计划/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,7 +742,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1262,10 +1262,18 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="3">
+        <v>43900</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4">
+        <v>300</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>

--- a/file/荣耀水晶计划.xlsx
+++ b/file/荣耀水晶计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab8db44a4cf510aa/HugoBlog/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{166AB318-D405-42C7-81E5-BAD295D1066C}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{704B53BB-00DC-420D-A386-C52C581C839E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
   <si>
     <t>https://blog.dontjudge.cn/life/荣耀水晶计划/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,7 +742,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1280,20 +1280,36 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="3">
+        <v>43901</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4">
+        <v>300</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="3">
+        <v>43903</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4">
+        <v>300</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>

--- a/file/荣耀水晶计划.xlsx
+++ b/file/荣耀水晶计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab8db44a4cf510aa/HugoBlog/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{704B53BB-00DC-420D-A386-C52C581C839E}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{566686A4-6DFA-42C5-A861-67E8B021EE3C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <t>https://blog.dontjudge.cn/life/荣耀水晶计划/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,7 +742,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1224,6 +1224,15 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
+      <c r="K16" s="11">
+        <v>43905</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16">
+        <v>89</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3">

--- a/file/荣耀水晶计划.xlsx
+++ b/file/荣耀水晶计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab8db44a4cf510aa/HugoBlog/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{566686A4-6DFA-42C5-A861-67E8B021EE3C}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{781AA52A-8357-4AB4-B888-F6A38A3EDBAC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
   <si>
     <t>https://blog.dontjudge.cn/life/荣耀水晶计划/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,7 +742,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1325,10 +1325,18 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="3">
+        <v>43907</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4">
+        <v>300</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>

--- a/file/荣耀水晶计划.xlsx
+++ b/file/荣耀水晶计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab8db44a4cf510aa/HugoBlog/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{781AA52A-8357-4AB4-B888-F6A38A3EDBAC}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB6D4C71-0811-4DA1-9F23-68E48F5614B1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>https://blog.dontjudge.cn/life/荣耀水晶计划/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,7 +742,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1343,20 +1343,36 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="3">
+        <v>43908</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4">
+        <v>300</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="3">
+        <v>43909</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4">
+        <v>300</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>

--- a/file/荣耀水晶计划.xlsx
+++ b/file/荣耀水晶计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab8db44a4cf510aa/HugoBlog/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB6D4C71-0811-4DA1-9F23-68E48F5614B1}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B40D0F37-BA64-4D28-A5FF-5DE375D92DA9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
+    <workbookView xWindow="6435" yWindow="3060" windowWidth="21600" windowHeight="10995" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
   <si>
     <t>https://blog.dontjudge.cn/life/荣耀水晶计划/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,7 +742,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1234,7 +1234,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>43888</v>
       </c>
@@ -1251,8 +1251,17 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K17" s="11">
+        <v>43914</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43896</v>
       </c>
@@ -1269,8 +1278,17 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K18" s="11">
+        <v>43914</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43900</v>
       </c>
@@ -1287,8 +1305,17 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K19" s="11">
+        <v>43914</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>43901</v>
       </c>
@@ -1306,7 +1333,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>43903</v>
       </c>
@@ -1324,7 +1351,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43907</v>
       </c>
@@ -1342,7 +1369,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>43908</v>
       </c>
@@ -1360,7 +1387,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>43909</v>
       </c>
@@ -1378,7 +1405,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1388,7 +1415,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1398,7 +1425,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1408,7 +1435,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1418,7 +1445,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1428,7 +1455,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1438,7 +1465,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>

--- a/file/荣耀水晶计划.xlsx
+++ b/file/荣耀水晶计划.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab8db44a4cf510aa/HugoBlog/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B40D0F37-BA64-4D28-A5FF-5DE375D92DA9}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="8_{72E53123-ED98-43C5-8E86-9E0E93F10EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E17E8005-793E-F549-B354-E868C9151071}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="3060" windowWidth="21600" windowHeight="10995" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
+    <workbookView xWindow="3390" yWindow="2910" windowWidth="25410" windowHeight="10995" xr2:uid="{EB702188-C02B-471E-A695-A91A3CA09BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
   <si>
     <t>https://blog.dontjudge.cn/life/荣耀水晶计划/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,13 @@
   <si>
     <t>抽奖券五连</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战令进阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖券五连</t>
   </si>
 </sst>
 </file>
@@ -267,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,6 +309,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -742,25 +752,25 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="15.12109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1953125" customWidth="1"/>
+    <col min="3" max="3" width="22.1953125" customWidth="1"/>
+    <col min="4" max="4" width="13.046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.65625" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="13.046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33984375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="10.2421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -768,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -806,7 +816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43859</v>
       </c>
@@ -841,7 +851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43859</v>
       </c>
@@ -874,7 +884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43860</v>
       </c>
@@ -909,7 +919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43861</v>
       </c>
@@ -944,7 +954,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43862</v>
       </c>
@@ -979,7 +989,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43869</v>
       </c>
@@ -1015,7 +1025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43870</v>
       </c>
@@ -1028,10 +1038,16 @@
       <c r="D9" s="4">
         <v>300</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="3">
+        <v>43922</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4">
+        <v>-388</v>
+      </c>
       <c r="K9" s="11">
         <v>43889</v>
       </c>
@@ -1042,7 +1058,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43871</v>
       </c>
@@ -1055,10 +1071,18 @@
       <c r="D10" s="4">
         <v>300</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="F10" s="3">
+        <v>43946</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="4">
+        <v>-600</v>
+      </c>
       <c r="K10" s="11">
         <v>43889</v>
       </c>
@@ -1069,7 +1093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43872</v>
       </c>
@@ -1096,7 +1120,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43875</v>
       </c>
@@ -1123,7 +1147,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43876</v>
       </c>
@@ -1150,7 +1174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43877</v>
       </c>
@@ -1180,7 +1204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43886</v>
       </c>
@@ -1207,7 +1231,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43887</v>
       </c>
@@ -1234,7 +1258,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43888</v>
       </c>
@@ -1261,7 +1285,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43896</v>
       </c>
@@ -1288,7 +1312,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43900</v>
       </c>
@@ -1315,7 +1339,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43901</v>
       </c>
@@ -1332,8 +1356,17 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K20" s="11">
+        <v>43946</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43903</v>
       </c>
@@ -1350,8 +1383,17 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K21" s="11">
+        <v>43946</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43907</v>
       </c>
@@ -1368,8 +1410,17 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="11">
+        <v>43946</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43908</v>
       </c>
@@ -1386,8 +1437,17 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K23" s="12">
+        <v>43951</v>
+      </c>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43909</v>
       </c>
@@ -1405,7 +1465,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1415,7 +1475,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1425,7 +1485,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1435,7 +1495,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1445,7 +1505,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1455,7 +1515,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1465,7 +1525,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
